--- a/Mechanics/Ballbot Kinematics.xlsx
+++ b/Mechanics/Ballbot Kinematics.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Paul\Mechanics\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="240" windowWidth="18915" windowHeight="7815"/>
+    <workbookView xWindow="360" yWindow="240" windowWidth="18912" windowHeight="7812" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Kinematix" sheetId="1" r:id="rId1"/>
-    <sheet name="State Control" sheetId="2" r:id="rId2"/>
-    <sheet name="sin computation" sheetId="3" r:id="rId3"/>
-    <sheet name="Arctan" sheetId="5" r:id="rId4"/>
-    <sheet name="Torque" sheetId="4" r:id="rId5"/>
-    <sheet name="Schwede" sheetId="6" r:id="rId6"/>
+    <sheet name="Torque" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Kinematix!$A$13:$Q$100</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcOnSave="0"/>
+  <calcPr calcId="152511" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>q</t>
   </si>
@@ -129,45 +130,6 @@
     <t>a</t>
   </si>
   <si>
-    <t xml:space="preserve">a </t>
-  </si>
-  <si>
-    <t>l1</t>
-  </si>
-  <si>
-    <t>l2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">result </t>
-  </si>
-  <si>
-    <t>sqr</t>
-  </si>
-  <si>
-    <t>sqr_fp4</t>
-  </si>
-  <si>
-    <t>fp5</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>fp8</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>fp10</t>
-  </si>
-  <si>
-    <t>fp2</t>
-  </si>
-  <si>
-    <t>fp14</t>
-  </si>
-  <si>
     <t>Construction Matrix</t>
   </si>
   <si>
@@ -182,445 +144,12 @@
   <si>
     <t>torque</t>
   </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>Measurements</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>Base velocity</t>
-  </si>
-  <si>
-    <t>Body velocity</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>Body</t>
-  </si>
-  <si>
-    <t>Arctan 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int arctan2(int y, int x) {                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   int coeff_1 = 128;                                          // angle in Quids (1024 Quids=360°) &lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   int coeff_2 = 3*coeff_1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   float abs_y = abs(y)+1e-10;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   float r, angle;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   if (x &gt;= 0) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     r = (x - abs_y) / (x + abs_y);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     angle = coeff_1 - coeff_1 * r;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   }  else {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     r = (x + abs_y) / (abs_y - x);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     angle = coeff_2 - coeff_1 * r;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   if (y &lt; 0)      return int(-angle);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   else            return int(angle);</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>x_FP9</t>
-  </si>
-  <si>
-    <t>tilt [rad]</t>
-  </si>
-  <si>
-    <t>rad2deg</t>
-  </si>
-  <si>
-    <t>tilt[deg]</t>
-  </si>
-  <si>
-    <t>Angle Weight</t>
-  </si>
-  <si>
-    <t>Acc-Min</t>
-  </si>
-  <si>
-    <t>v-neu [m/s]</t>
-  </si>
-  <si>
-    <t>Jochen</t>
-  </si>
-  <si>
-    <r>
-      <t>Acc-Dead [m/s</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Acc-Dead [mm/s</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Acc-Min [mm/s</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>acc-raw [m/s</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>acc-raw [mm/s</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>acc-cons [m/s</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>acc-cons [mm/s</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <t>v-neu [mm/s]</t>
-  </si>
-  <si>
-    <t>Suede</t>
-  </si>
-  <si>
-    <t>Angluar Speed Weight</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">w </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>[RAD/s]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">w </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>[°/s]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">w </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>[rpm]</t>
-    </r>
-  </si>
-  <si>
-    <t>radm2degmm</t>
-  </si>
-  <si>
-    <t>Position Weight</t>
-  </si>
-  <si>
-    <t>pos[m]</t>
-  </si>
-  <si>
-    <t>pos[mm]</t>
-  </si>
-  <si>
-    <t>Velocity Weight</t>
-  </si>
-  <si>
-    <t>State Control Loop</t>
-  </si>
-  <si>
-    <t>Acceleration Weight</t>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>base</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>v</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>current</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [mm/s]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>v</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>current</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [m/s]</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="31">
+  <numFmts count="20">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0\ \°"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -639,21 +168,10 @@
     <numFmt numFmtId="178" formatCode="0.0000000"/>
     <numFmt numFmtId="179" formatCode="0.000\ &quot;mm&quot;"/>
     <numFmt numFmtId="180" formatCode="0\ &quot;rpm&quot;"/>
-    <numFmt numFmtId="181" formatCode="0.0%"/>
-    <numFmt numFmtId="182" formatCode="0.000000000000"/>
     <numFmt numFmtId="183" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="184" formatCode="0.00000\ &quot;1/s&quot;"/>
-    <numFmt numFmtId="185" formatCode="0.0\ &quot;ms&quot;"/>
-    <numFmt numFmtId="186" formatCode="0.0\ \°"/>
-    <numFmt numFmtId="187" formatCode="0.00\ \R\A\D"/>
-    <numFmt numFmtId="188" formatCode="0.0\ &quot;RAD/s&quot;"/>
-    <numFmt numFmtId="189" formatCode="0.0\ &quot;RPM&quot;"/>
-    <numFmt numFmtId="190" formatCode="0.000\ &quot;m&quot;"/>
-    <numFmt numFmtId="191" formatCode="0.000\ &quot;m/s&quot;"/>
-    <numFmt numFmtId="192" formatCode="0.0\ &quot;mm/s2&quot;"/>
-    <numFmt numFmtId="193" formatCode="0.000\ &quot;m/s2&quot;"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,43 +227,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Symbol"/>
-      <family val="1"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -872,7 +353,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -957,12 +438,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -972,27 +447,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="184" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -1004,6 +458,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1545,11 +1002,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="92283264"/>
-        <c:axId val="92284800"/>
+        <c:axId val="407602608"/>
+        <c:axId val="407598296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92283264"/>
+        <c:axId val="407602608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,12 +1016,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92284800"/>
+        <c:crossAx val="407598296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92284800"/>
+        <c:axId val="407598296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1575,7 +1032,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92283264"/>
+        <c:crossAx val="407602608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2166,7 +1623,7 @@
                     <m:dPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:dPr>
@@ -2183,7 +1640,7 @@
                           </m:mcs>
                           <m:ctrlPr>
                             <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             </a:rPr>
                           </m:ctrlPr>
                         </m:mPr>
@@ -2270,7 +1727,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -2467,7 +1924,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -2484,7 +1941,7 @@
                         <m:sSubPr>
                           <m:ctrlPr>
                             <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             </a:rPr>
                           </m:ctrlPr>
                         </m:sSubPr>
@@ -2517,7 +1974,7 @@
                     <m:dPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:dPr>
@@ -2534,7 +1991,7 @@
                           </m:mcs>
                           <m:ctrlPr>
                             <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             </a:rPr>
                           </m:ctrlPr>
                         </m:mPr>
@@ -2555,7 +2012,7 @@
                               <m:funcPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:funcPr>
@@ -2592,7 +2049,7 @@
                               <m:funcPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:funcPr>
@@ -2631,7 +2088,7 @@
                               <m:fPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:fPr>
@@ -2641,7 +2098,7 @@
                                     <m:degHide m:val="on"/>
                                     <m:ctrlPr>
                                       <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       </a:rPr>
                                     </m:ctrlPr>
                                   </m:radPr>
@@ -2675,7 +2132,7 @@
                               <m:funcPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:funcPr>
@@ -2712,7 +2169,7 @@
                               <m:fPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:fPr>
@@ -2721,7 +2178,7 @@
                                   <m:funcPr>
                                     <m:ctrlPr>
                                       <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       </a:rPr>
                                     </m:ctrlPr>
                                   </m:funcPr>
@@ -2778,7 +2235,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2828,7 +2285,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2844,7 +2301,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -2902,7 +2359,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2962,7 +2419,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2977,7 +2434,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -3053,7 +2510,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -3104,7 +2561,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3751,7 +3208,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -3768,7 +3225,7 @@
                         <m:sSubPr>
                           <m:ctrlPr>
                             <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             </a:rPr>
                           </m:ctrlPr>
                         </m:sSubPr>
@@ -3801,7 +3258,7 @@
                     <m:dPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:dPr>
@@ -3818,7 +3275,7 @@
                           </m:mcs>
                           <m:ctrlPr>
                             <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             </a:rPr>
                           </m:ctrlPr>
                         </m:mPr>
@@ -3839,7 +3296,7 @@
                               <m:funcPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:funcPr>
@@ -3876,7 +3333,7 @@
                               <m:funcPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:funcPr>
@@ -3915,7 +3372,7 @@
                               <m:fPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:fPr>
@@ -3925,7 +3382,7 @@
                                     <m:degHide m:val="on"/>
                                     <m:ctrlPr>
                                       <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       </a:rPr>
                                     </m:ctrlPr>
                                   </m:radPr>
@@ -3959,7 +3416,7 @@
                               <m:funcPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:funcPr>
@@ -3996,7 +3453,7 @@
                               <m:fPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:fPr>
@@ -4005,7 +3462,7 @@
                                   <m:funcPr>
                                     <m:ctrlPr>
                                       <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       </a:rPr>
                                     </m:ctrlPr>
                                   </m:funcPr>
@@ -4062,7 +3519,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -4112,7 +3569,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -4128,7 +3585,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -4186,7 +3643,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -4246,7 +3703,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -4261,7 +3718,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -4337,7 +3794,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -4388,7 +3845,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4433,7 +3890,7 @@
                     <m:dPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:dPr>
@@ -4450,7 +3907,7 @@
                           </m:mcs>
                           <m:ctrlPr>
                             <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             </a:rPr>
                           </m:ctrlPr>
                         </m:mPr>
@@ -4537,7 +3994,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -4870,7 +4327,7 @@
                       <m:sSupPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSupPr>
@@ -4883,7 +4340,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5102,7 +4559,7 @@
                     <m:sSupPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:sSupPr>
@@ -5111,7 +4568,7 @@
                         <m:dPr>
                           <m:ctrlPr>
                             <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             </a:rPr>
                           </m:ctrlPr>
                         </m:dPr>
@@ -5132,7 +4589,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -5279,7 +4736,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -5339,7 +4796,7 @@
                     <m:sSupPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:sSupPr>
@@ -5493,7 +4950,7 @@
                     <m:sSupPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:sSupPr>
@@ -5502,7 +4959,7 @@
                         <m:dPr>
                           <m:ctrlPr>
                             <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             </a:rPr>
                           </m:ctrlPr>
                         </m:dPr>
@@ -5523,7 +4980,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -5670,7 +5127,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -5730,7 +5187,7 @@
                     <m:sSupPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:sSupPr>
@@ -5748,7 +5205,7 @@
                     <m:sSupPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:sSupPr>
@@ -5757,7 +5214,7 @@
                         <m:dPr>
                           <m:ctrlPr>
                             <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             </a:rPr>
                           </m:ctrlPr>
                         </m:dPr>
@@ -5778,7 +5235,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -5811,7 +5268,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -5871,7 +5328,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -5933,7 +5390,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -5949,7 +5406,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="Cambria Math"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -6007,7 +5464,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -6067,7 +5524,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -6082,7 +5539,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="Cambria Math"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -6158,7 +5615,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -6208,7 +5665,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -6224,7 +5681,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="Cambria Math"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -6282,7 +5739,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -6342,7 +5799,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -6357,7 +5814,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="Cambria Math"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -6433,7 +5890,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -6496,7 +5953,7 @@
                     <m:sSubPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:sSubPr>
@@ -6677,7 +6134,7 @@
                       <m:endChr m:val="]"/>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:dPr>
@@ -6694,7 +6151,7 @@
                           </m:mcs>
                           <m:ctrlPr>
                             <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             </a:rPr>
                           </m:ctrlPr>
                         </m:mPr>
@@ -6704,7 +6161,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -6740,7 +6197,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -6776,7 +6233,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -6825,7 +6282,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -6842,7 +6299,7 @@
                         <m:sSubPr>
                           <m:ctrlPr>
                             <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             </a:rPr>
                           </m:ctrlPr>
                         </m:sSubPr>
@@ -6875,7 +6332,7 @@
                     <m:dPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:dPr>
@@ -6892,7 +6349,7 @@
                           </m:mcs>
                           <m:ctrlPr>
                             <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             </a:rPr>
                           </m:ctrlPr>
                         </m:mPr>
@@ -6913,7 +6370,7 @@
                               <m:funcPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:funcPr>
@@ -6950,7 +6407,7 @@
                               <m:funcPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:funcPr>
@@ -6989,7 +6446,7 @@
                               <m:fPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:fPr>
@@ -6999,7 +6456,7 @@
                                     <m:degHide m:val="on"/>
                                     <m:ctrlPr>
                                       <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       </a:rPr>
                                     </m:ctrlPr>
                                   </m:radPr>
@@ -7033,7 +6490,7 @@
                               <m:funcPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:funcPr>
@@ -7070,7 +6527,7 @@
                               <m:fPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:fPr>
@@ -7079,7 +6536,7 @@
                                   <m:funcPr>
                                     <m:ctrlPr>
                                       <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       </a:rPr>
                                     </m:ctrlPr>
                                   </m:funcPr>
@@ -7136,7 +6593,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -7186,7 +6643,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -7202,7 +6659,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -7260,7 +6717,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -7320,7 +6777,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -7335,7 +6792,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -7411,7 +6868,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -7462,7 +6919,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -7507,7 +6964,7 @@
                     <m:dPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:dPr>
@@ -7524,7 +6981,7 @@
                           </m:mcs>
                           <m:ctrlPr>
                             <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             </a:rPr>
                           </m:ctrlPr>
                         </m:mPr>
@@ -7611,7 +7068,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -7643,7 +7100,7 @@
                       <m:endChr m:val="]"/>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:dPr>
@@ -7660,7 +7117,7 @@
                           </m:mcs>
                           <m:ctrlPr>
                             <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             </a:rPr>
                           </m:ctrlPr>
                         </m:mPr>
@@ -7670,7 +7127,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -7699,7 +7156,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -7728,7 +7185,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -8005,7 +7462,7 @@
                     <m:sSupPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:sSupPr>
@@ -8014,7 +7471,7 @@
                         <m:dPr>
                           <m:ctrlPr>
                             <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             </a:rPr>
                           </m:ctrlPr>
                         </m:dPr>
@@ -8035,7 +7492,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -8182,7 +7639,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -8242,7 +7699,7 @@
                     <m:sSupPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:sSupPr>
@@ -8267,7 +7724,7 @@
                     <m:sSupPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:sSupPr>
@@ -8276,7 +7733,7 @@
                         <m:dPr>
                           <m:ctrlPr>
                             <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             </a:rPr>
                           </m:ctrlPr>
                         </m:dPr>
@@ -8297,7 +7754,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -8330,7 +7787,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -8390,7 +7847,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -8452,7 +7909,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -8468,7 +7925,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="Cambria Math"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -8526,7 +7983,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -8586,7 +8043,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -8601,7 +8058,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="Cambria Math"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -8677,7 +8134,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -8727,7 +8184,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -8743,7 +8200,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="Cambria Math"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -8801,7 +8258,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -8861,7 +8318,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -8876,7 +8333,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="Cambria Math"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -8952,7 +8409,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -9015,7 +8472,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -9038,7 +8495,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -9054,7 +8511,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -9113,7 +8570,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -9172,7 +8629,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -9232,7 +8689,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -9249,7 +8706,7 @@
                         <m:sSubPr>
                           <m:ctrlPr>
                             <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             </a:rPr>
                           </m:ctrlPr>
                         </m:sSubPr>
@@ -9296,7 +8753,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -9319,7 +8776,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -9335,7 +8792,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -9382,7 +8839,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -9429,7 +8886,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -9692,7 +9149,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubPr>
@@ -9729,7 +9186,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubPr>
@@ -9762,7 +9219,7 @@
                         <m:endChr m:val="]"/>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:dPr>
@@ -9779,7 +9236,7 @@
                             </m:mcs>
                             <m:ctrlPr>
                               <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:mPr>
@@ -9826,7 +9283,7 @@
                                 <m:funcPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:funcPr>
@@ -9846,7 +9303,7 @@
                                     <m:sSubPr>
                                       <m:ctrlPr>
                                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         </a:rPr>
                                       </m:ctrlPr>
                                     </m:sSubPr>
@@ -9891,7 +9348,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -9923,7 +9380,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -9976,7 +9433,7 @@
                                 <m:funcPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:funcPr>
@@ -10000,7 +9457,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -10047,7 +9504,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -10079,7 +9536,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -10133,7 +9590,7 @@
                         <m:endChr m:val="]"/>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:dPr>
@@ -10150,7 +9607,7 @@
                             </m:mcs>
                             <m:ctrlPr>
                               <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:mPr>
@@ -10164,7 +9621,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -10196,7 +9653,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -10247,7 +9704,7 @@
                                 <m:funcPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:funcPr>
@@ -10267,7 +9724,7 @@
                                     <m:sSubPr>
                                       <m:ctrlPr>
                                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         </a:rPr>
                                       </m:ctrlPr>
                                     </m:sSubPr>
@@ -10336,7 +9793,7 @@
                                 <m:funcPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:funcPr>
@@ -10360,7 +9817,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -10415,7 +9872,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -10447,7 +9904,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -10501,7 +9958,7 @@
                         <m:endChr m:val="]"/>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:dPr>
@@ -10518,7 +9975,7 @@
                             </m:mcs>
                             <m:ctrlPr>
                               <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:mPr>
@@ -10532,7 +9989,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -10564,7 +10021,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -10619,7 +10076,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -10651,7 +10108,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -10700,7 +10157,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -10732,7 +10189,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -10775,7 +10232,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -10807,7 +10264,7 @@
                                                 <a:schemeClr val="tx1"/>
                                               </a:solidFill>
                                               <a:effectLst/>
-                                              <a:latin typeface="Cambria Math"/>
+                                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                               <a:ea typeface="+mn-ea"/>
                                               <a:cs typeface="+mn-cs"/>
                                             </a:rPr>
@@ -10856,7 +10313,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -10888,7 +10345,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -10935,7 +10392,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -10962,7 +10419,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -10994,7 +10451,7 @@
                                                 <a:schemeClr val="tx1"/>
                                               </a:solidFill>
                                               <a:effectLst/>
-                                              <a:latin typeface="Cambria Math"/>
+                                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                               <a:ea typeface="+mn-ea"/>
                                               <a:cs typeface="+mn-cs"/>
                                             </a:rPr>
@@ -11041,7 +10498,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -11073,7 +10530,7 @@
                                                 <a:schemeClr val="tx1"/>
                                               </a:solidFill>
                                               <a:effectLst/>
-                                              <a:latin typeface="Cambria Math"/>
+                                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                               <a:ea typeface="+mn-ea"/>
                                               <a:cs typeface="+mn-cs"/>
                                             </a:rPr>
@@ -11124,7 +10581,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -11168,7 +10625,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -11211,7 +10668,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -11243,7 +10700,7 @@
                                                 <a:schemeClr val="tx1"/>
                                               </a:solidFill>
                                               <a:effectLst/>
-                                              <a:latin typeface="Cambria Math"/>
+                                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                               <a:ea typeface="+mn-ea"/>
                                               <a:cs typeface="+mn-cs"/>
                                             </a:rPr>
@@ -11292,7 +10749,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -11324,7 +10781,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -11371,7 +10828,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -11403,7 +10860,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -11448,7 +10905,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -11480,7 +10937,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -12174,7 +11631,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12411,7 +11868,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -12440,7 +11897,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -12497,7 +11954,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -12520,7 +11977,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -12553,7 +12010,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -12613,7 +12070,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -12675,7 +12132,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -12691,7 +12148,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -12749,7 +12206,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -12809,7 +12266,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -12824,7 +12281,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -12900,7 +12357,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -12950,7 +12407,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -12966,7 +12423,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -13024,7 +12481,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -13084,7 +12541,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -13099,7 +12556,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -13175,7 +12632,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -13376,7 +12833,7 @@
                     <m:sSupPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:sSupPr>
@@ -13401,7 +12858,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -13456,7 +12913,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -13479,7 +12936,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -13512,7 +12969,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -13572,7 +13029,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -13634,7 +13091,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -13650,7 +13107,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="Cambria Math"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -13708,7 +13165,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -13768,7 +13225,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -13783,7 +13240,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="Cambria Math"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -13859,7 +13316,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -13909,7 +13366,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -13925,7 +13382,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="Cambria Math"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -13983,7 +13440,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -14043,7 +13500,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -14058,7 +13515,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="Cambria Math"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -14134,7 +13591,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -14376,7 +13833,7 @@
                       <m:sSupPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSupPr>
@@ -14387,7 +13844,7 @@
                             <m:endChr m:val="]"/>
                             <m:ctrlPr>
                               <a:rPr lang="de-DE" sz="1100" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:dPr>
@@ -14404,7 +13861,7 @@
                                 </m:mcs>
                                 <m:ctrlPr>
                                   <a:rPr lang="de-DE" sz="1100" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:mPr>
@@ -14501,7 +13958,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -14671,8 +14128,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4748213" y="3524250"/>
-          <a:ext cx="2955130" cy="2226469"/>
+          <a:off x="4889183" y="3387090"/>
+          <a:ext cx="3061810" cy="2133124"/>
           <a:chOff x="251520" y="764704"/>
           <a:chExt cx="6192688" cy="5088580"/>
         </a:xfrm>
@@ -18277,7 +17734,7 @@
                     <m:dPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:dPr>
@@ -18298,7 +17755,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -18329,7 +17786,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -18415,7 +17872,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -18489,7 +17946,7 @@
                     <m:dPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:dPr>
@@ -18510,7 +17967,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -18526,7 +17983,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -18586,7 +18043,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -18636,7 +18093,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -18684,7 +18141,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -18937,251 +18394,6 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="752475" cy="200025"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Textfeld 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1143000"/>
-          <a:ext cx="752475" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100">
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>v</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="-25000">
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>x</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="752475" cy="200025"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Textfeld 3"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1333500"/>
-          <a:ext cx="752475" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0">
-              <a:latin typeface="Symbol" pitchFamily="18" charset="2"/>
-            </a:rPr>
-            <a:t>q</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="-25000">
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>x</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="752475" cy="200025"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Textfeld 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2286000" y="1143000"/>
-          <a:ext cx="752475" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100">
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>v</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="-25000">
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>sx</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="752475" cy="200025"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Textfeld 5"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2667000"/>
-          <a:ext cx="752475" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0">
-              <a:latin typeface="Symbol" pitchFamily="18" charset="2"/>
-            </a:rPr>
-            <a:t>q</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="-25000">
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>x</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -19216,9 +18428,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -19256,9 +18468,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -19293,7 +18505,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -19328,7 +18540,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -19504,25 +18716,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:Q104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B58" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
@@ -19530,7 +18742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -19541,7 +18753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="9">
         <v>120</v>
@@ -19550,7 +18762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="9">
         <v>24</v>
@@ -19559,7 +18771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="43" t="s">
         <v>18</v>
       </c>
@@ -19570,8 +18782,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>26</v>
       </c>
@@ -19579,7 +18791,7 @@
       <c r="C26" s="18"/>
       <c r="D26" s="19"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
       <c r="B27" s="41">
         <v>1000</v>
@@ -19593,7 +18805,7 @@
       <c r="H27" s="15"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="20"/>
       <c r="B28" s="41">
         <v>1000</v>
@@ -19603,7 +18815,7 @@
       </c>
       <c r="D28" s="23"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="20"/>
       <c r="B29" s="41">
         <v>50</v>
@@ -19613,7 +18825,7 @@
       </c>
       <c r="D29" s="23"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="20"/>
       <c r="B30" s="41">
         <v>0</v>
@@ -19623,7 +18835,7 @@
       </c>
       <c r="D30" s="23"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="24"/>
       <c r="B31" s="32">
         <v>10</v>
@@ -19633,13 +18845,13 @@
       </c>
       <c r="D31" s="27"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="39"/>
       <c r="B32" s="41"/>
       <c r="C32" s="22"/>
       <c r="D32" s="39"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="50" t="s">
         <v>29</v>
       </c>
@@ -19650,7 +18862,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="55" t="s">
         <v>30</v>
       </c>
@@ -19667,7 +18879,7 @@
         <v>-914.39819812847691</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="20"/>
       <c r="B35" s="59">
         <v>48</v>
@@ -19681,7 +18893,7 @@
         <v>-0.38385902413018863</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="24"/>
       <c r="B36" s="60">
         <f>B29*B100+B30*D100</f>
@@ -19692,8 +18904,8 @@
       </c>
       <c r="D36" s="27"/>
     </row>
-    <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>27</v>
       </c>
@@ -19712,7 +18924,7 @@
       </c>
       <c r="O38" s="19"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="30"/>
       <c r="B39" s="51">
         <v>10</v>
@@ -19734,14 +18946,14 @@
         <v>8</v>
       </c>
       <c r="K39" s="23"/>
-      <c r="L39" s="77"/>
+      <c r="L39" s="73"/>
       <c r="N39" s="20"/>
       <c r="O39" s="33">
         <f>RADIANS(G90*H39+H90*H40+I90*H41)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="30"/>
       <c r="B40" s="51">
         <v>0</v>
@@ -19764,14 +18976,14 @@
         <v>9</v>
       </c>
       <c r="K40" s="23"/>
-      <c r="L40" s="77"/>
+      <c r="L40" s="73"/>
       <c r="N40" s="20"/>
       <c r="O40" s="33">
         <f>RADIANS((G91*H39+H91*H40+I91*H41))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="31"/>
       <c r="B41" s="32">
         <v>0</v>
@@ -19793,14 +19005,14 @@
         <v>10</v>
       </c>
       <c r="K41" s="27"/>
-      <c r="L41" s="77"/>
+      <c r="L41" s="73"/>
       <c r="N41" s="24"/>
       <c r="O41" s="34">
         <f>(K92*H39+L92*H40+M92*H41)/B22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="40"/>
       <c r="B42" s="42"/>
       <c r="C42" s="22"/>
@@ -19813,7 +19025,7 @@
       <c r="M42" s="39"/>
       <c r="N42" s="42"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
         <v>24</v>
       </c>
@@ -19828,7 +19040,7 @@
       <c r="M43" s="39"/>
       <c r="N43" s="42"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="46"/>
       <c r="B44" s="41">
         <f>B27+B29</f>
@@ -19846,7 +19058,7 @@
       <c r="M44" s="39"/>
       <c r="N44" s="42"/>
     </row>
-    <row r="45" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="47"/>
       <c r="B45" s="48">
         <f>B28+B30</f>
@@ -19864,7 +19076,7 @@
       <c r="M45" s="39"/>
       <c r="N45" s="42"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="42"/>
       <c r="C46" s="22"/>
@@ -19877,17 +19089,17 @@
       <c r="M46" s="39"/>
       <c r="N46" s="42"/>
     </row>
-    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="35" t="s">
         <v>12</v>
       </c>
       <c r="B48" s="36"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="30"/>
       <c r="B49" s="37">
         <v>0</v>
@@ -19907,7 +19119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="31"/>
       <c r="B50" s="38">
         <v>0</v>
@@ -19927,26 +19139,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
     </row>
-    <row r="53" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B53" s="3"/>
-      <c r="F53" s="74">
+      <c r="F53" s="70">
         <v>0</v>
       </c>
-      <c r="G53" s="75">
+      <c r="G53" s="71">
         <f>-1/(B23)*COS(RADIANS(B21))</f>
         <v>-3.1918518463290746E-2</v>
       </c>
-      <c r="H53" s="76">
+      <c r="H53" s="72">
         <f>1/(B23)*SIN(RADIANS(B21))</f>
         <v>2.6782817070272469E-2</v>
       </c>
-      <c r="N53" s="74">
+      <c r="N53" s="70">
         <f t="array" ref="N53:P55">MINVERSE(F53:H55)</f>
         <v>-2.008199606335268E-15</v>
       </c>
@@ -19957,19 +19169,19 @@
         <v>-18.08825399755418</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E54" t="s">
         <v>2</v>
       </c>
-      <c r="F54" s="74">
+      <c r="F54" s="70">
         <f>1/(B23)*SQRT(3)/2*COS(RADIANS(B21))</f>
         <v>2.764224784037243E-2</v>
       </c>
-      <c r="G54" s="75">
+      <c r="G54" s="71">
         <f>1/(B23)*COS(RADIANS(B21))/2</f>
         <v>1.5959259231645373E-2</v>
       </c>
-      <c r="H54" s="76">
+      <c r="H54" s="72">
         <f>1/(B23)*SIN(RADIANS(B21))</f>
         <v>2.6782817070272469E-2</v>
       </c>
@@ -19987,16 +19199,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F55" s="74">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F55" s="70">
         <f>-1/(B23)*SQRT(3)/2*COS(RADIANS(B21))</f>
         <v>-2.764224784037243E-2</v>
       </c>
-      <c r="G55" s="75">
+      <c r="G55" s="71">
         <f>1/(B23)*COS(RADIANS(B21))/2</f>
         <v>1.5959259231645373E-2</v>
       </c>
-      <c r="H55" s="76">
+      <c r="H55" s="72">
         <f>1/(B23)*SIN(RADIANS(B21))</f>
         <v>2.6782817070272469E-2</v>
       </c>
@@ -20010,14 +19222,14 @@
         <v>12.4457906148833</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F58" s="70">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F58" s="66">
         <v>0</v>
       </c>
-      <c r="G58" s="71">
+      <c r="G58" s="67">
         <v>-1</v>
       </c>
-      <c r="H58" s="72">
+      <c r="H58" s="68">
         <v>0</v>
       </c>
       <c r="N58" s="61">
@@ -20031,17 +19243,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>2</v>
       </c>
-      <c r="F59" s="70">
+      <c r="F59" s="66">
         <v>1</v>
       </c>
-      <c r="G59" s="71">
+      <c r="G59" s="67">
         <v>0</v>
       </c>
-      <c r="H59" s="72">
+      <c r="H59" s="68">
         <v>0</v>
       </c>
       <c r="N59" s="61">
@@ -20054,14 +19266,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F60" s="70">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F60" s="66">
         <v>0</v>
       </c>
-      <c r="G60" s="71">
+      <c r="G60" s="67">
         <v>0</v>
       </c>
-      <c r="H60" s="72">
+      <c r="H60" s="68">
         <f>-B22</f>
         <v>-120</v>
       </c>
@@ -20075,12 +19287,12 @@
         <v>-8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>25</v>
       </c>
@@ -20088,23 +19300,23 @@
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
-      <c r="J64" s="74">
+      <c r="J64" s="70">
         <f>F50</f>
         <v>1</v>
       </c>
-      <c r="K64" s="75">
+      <c r="K64" s="71">
         <v>0</v>
       </c>
-      <c r="L64" s="76">
+      <c r="L64" s="72">
         <f>D50</f>
         <v>0</v>
       </c>
@@ -20119,19 +19331,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="J65" s="74">
+      <c r="J65" s="70">
         <f>D49*D50</f>
         <v>0</v>
       </c>
-      <c r="K65" s="75">
+      <c r="K65" s="71">
         <f>F49</f>
         <v>1</v>
       </c>
-      <c r="L65" s="76">
+      <c r="L65" s="72">
         <f>-D49*F50</f>
         <v>0</v>
       </c>
@@ -20145,17 +19357,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I66" s="7"/>
-      <c r="J66" s="74">
+      <c r="J66" s="70">
         <f>-F49*D50</f>
         <v>0</v>
       </c>
-      <c r="K66" s="75">
+      <c r="K66" s="71">
         <f>D49</f>
         <v>0</v>
       </c>
-      <c r="L66" s="76">
+      <c r="L66" s="72">
         <f>F49*F50</f>
         <v>1</v>
       </c>
@@ -20169,7 +19381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
@@ -20178,7 +19390,7 @@
       <c r="K67" s="7"/>
       <c r="M67" s="14"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
@@ -20186,20 +19398,20 @@
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G72" s="74">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G72" s="70">
         <f t="array" ref="G72:I74">MMULT(F53:H55,N64:P66)</f>
         <v>0</v>
       </c>
-      <c r="H72" s="75">
+      <c r="H72" s="71">
         <v>-3.1918518463290746E-2</v>
       </c>
-      <c r="I72" s="76">
+      <c r="I72" s="72">
         <v>2.6782817070272469E-2</v>
       </c>
       <c r="K72" s="7">
@@ -20215,18 +19427,18 @@
         <v>2.6782817070272469E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C73" s="11"/>
       <c r="F73" t="s">
         <v>2</v>
       </c>
-      <c r="G73" s="74">
+      <c r="G73" s="70">
         <v>2.764224784037243E-2</v>
       </c>
-      <c r="H73" s="75">
+      <c r="H73" s="71">
         <v>1.5959259231645373E-2</v>
       </c>
-      <c r="I73" s="76">
+      <c r="I73" s="72">
         <v>2.6782817070272469E-2</v>
       </c>
       <c r="K73" s="7">
@@ -20242,14 +19454,14 @@
         <v>2.6782817070272469E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G74" s="74">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G74" s="70">
         <v>-2.764224784037243E-2</v>
       </c>
-      <c r="H74" s="75">
+      <c r="H74" s="71">
         <v>1.5959259231645373E-2</v>
       </c>
-      <c r="I74" s="76">
+      <c r="I74" s="72">
         <v>2.6782817070272469E-2</v>
       </c>
       <c r="K74" s="7">
@@ -20265,12 +19477,12 @@
         <v>2.6782817070272469E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="K76" s="8" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="8"/>
       <c r="G77" s="61">
         <f t="array" ref="G77:I79">MMULT(G72:I74,F58:H60)</f>
@@ -20295,7 +19507,7 @@
         <v>-3.2139380484326963</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F78" s="14" t="s">
         <v>2</v>
       </c>
@@ -20321,7 +19533,7 @@
         <v>-3.2139380484326963</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G79" s="61">
         <v>1.5959259231645373E-2</v>
       </c>
@@ -20344,15 +19556,15 @@
         <v>-3.2139380484326963</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="K81" s="16"/>
-      <c r="L81" s="73"/>
+      <c r="L81" s="69"/>
       <c r="M81" s="16"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
@@ -20360,7 +19572,7 @@
       <c r="L82" s="16"/>
       <c r="M82" s="16"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
@@ -20368,15 +19580,15 @@
       <c r="L83" s="16"/>
       <c r="M83" s="16"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G85" s="74">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G85" s="70">
         <f t="array" ref="G85:I87">MMULT(N58:P60,J64:L66)</f>
         <v>0</v>
       </c>
-      <c r="H85" s="75">
+      <c r="H85" s="71">
         <v>1</v>
       </c>
-      <c r="I85" s="76">
+      <c r="I85" s="72">
         <v>0</v>
       </c>
       <c r="K85" s="7">
@@ -20392,14 +19604,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G86" s="74">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G86" s="70">
         <v>-1</v>
       </c>
-      <c r="H86" s="75">
+      <c r="H86" s="71">
         <v>0</v>
       </c>
-      <c r="I86" s="76">
+      <c r="I86" s="72">
         <v>0</v>
       </c>
       <c r="K86" s="7">
@@ -20415,14 +19627,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G87" s="74">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G87" s="70">
         <v>0</v>
       </c>
-      <c r="H87" s="75">
+      <c r="H87" s="71">
         <v>0</v>
       </c>
-      <c r="I87" s="76">
+      <c r="I87" s="72">
         <v>-8.3333333333333332E-3</v>
       </c>
       <c r="K87" s="7">
@@ -20438,15 +19650,15 @@
         <v>-8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G90" s="61">
         <f t="array" ref="G90:I92">MMULT(G85:I87,N53:P55)</f>
         <v>-20.886516629316461</v>
@@ -20470,7 +19682,7 @@
         <v>10.443258314658232</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G91" s="61">
         <v>2.008199606335268E-15</v>
       </c>
@@ -20493,7 +19705,7 @@
         <v>18.088253997554176</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G92" s="61">
         <v>-0.10371492179069416</v>
       </c>
@@ -20516,24 +19728,24 @@
         <v>-12.4457906148833</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D97" s="59">
         <f>B29*D100-B30*B100</f>
         <v>49.999923845664384</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D98" s="59">
         <f>B29*B100+B30*D100</f>
         <v>8.7266418294915438E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
         <v>13</v>
       </c>
@@ -20549,7 +19761,7 @@
         <v>0.99999847691328769</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>34</v>
       </c>
@@ -20563,823 +19775,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:I20"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="51">
-        <v>100</v>
-      </c>
-      <c r="E7">
-        <v>120</v>
-      </c>
-      <c r="G7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="9">
-        <f>B11+B7*B12/1000</f>
-        <v>50.3</v>
-      </c>
-      <c r="I7" s="9">
-        <f>H7+SIN(RADIANS(B8))*B13</f>
-        <v>50.352359850976946</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="82">
-        <v>0.1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="79">
-        <f>B7</f>
-        <v>100</v>
-      </c>
-      <c r="I8" s="79">
-        <f>(I7-B14)/(B12/1000)</f>
-        <v>117.45328365898189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="81">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="81">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="81">
-        <f>50</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <f>B8</f>
-        <v>0.1</v>
-      </c>
-      <c r="B20" s="79">
-        <f>I8</f>
-        <v>117.45328365898189</v>
-      </c>
-      <c r="C20" s="79">
-        <f>B7</f>
-        <v>100</v>
-      </c>
-      <c r="D20" s="9">
-        <f>H7</f>
-        <v>50.3</v>
-      </c>
-      <c r="E20" s="2">
-        <f>A20 + 1</f>
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AA34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="23" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <f>A2+90/22.5</f>
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ref="C2:X2" si="0">B2+90/22.5</f>
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="F2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="H2">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="I2">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="J2">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="K2">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="L2">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="M2">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="N2">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="O2">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="P2">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="Q2">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="R2">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="S2">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="T2">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-      <c r="U2">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="V2">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="W2">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="X2">
-        <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="69">
-        <f>SIN(RADIANS(A2))</f>
-        <v>0</v>
-      </c>
-      <c r="B3" s="69">
-        <f>SIN(RADIANS(B2))</f>
-        <v>6.9756473744125302E-2</v>
-      </c>
-      <c r="C3" s="69">
-        <f t="shared" ref="C3:W3" si="1">SIN(RADIANS(C2))</f>
-        <v>0.13917310096006544</v>
-      </c>
-      <c r="D3" s="69">
-        <f t="shared" si="1"/>
-        <v>0.20791169081775934</v>
-      </c>
-      <c r="E3" s="69">
-        <f t="shared" si="1"/>
-        <v>0.27563735581699916</v>
-      </c>
-      <c r="F3" s="69">
-        <f t="shared" si="1"/>
-        <v>0.34202014332566871</v>
-      </c>
-      <c r="G3" s="69">
-        <f t="shared" si="1"/>
-        <v>0.40673664307580021</v>
-      </c>
-      <c r="H3" s="69">
-        <f t="shared" si="1"/>
-        <v>0.46947156278589081</v>
-      </c>
-      <c r="I3" s="69">
-        <f t="shared" si="1"/>
-        <v>0.5299192642332049</v>
-      </c>
-      <c r="J3" s="69">
-        <f t="shared" si="1"/>
-        <v>0.58778525229247314</v>
-      </c>
-      <c r="K3" s="69">
-        <f t="shared" si="1"/>
-        <v>0.64278760968653925</v>
-      </c>
-      <c r="L3" s="69">
-        <f t="shared" si="1"/>
-        <v>0.69465837045899725</v>
-      </c>
-      <c r="M3" s="69">
-        <f t="shared" si="1"/>
-        <v>0.74314482547739424</v>
-      </c>
-      <c r="N3" s="69">
-        <f t="shared" si="1"/>
-        <v>0.78801075360672201</v>
-      </c>
-      <c r="O3" s="69">
-        <f t="shared" si="1"/>
-        <v>0.82903757255504174</v>
-      </c>
-      <c r="P3" s="69">
-        <f t="shared" si="1"/>
-        <v>0.8660254037844386</v>
-      </c>
-      <c r="Q3" s="69">
-        <f t="shared" si="1"/>
-        <v>0.89879404629916704</v>
-      </c>
-      <c r="R3" s="69">
-        <f t="shared" si="1"/>
-        <v>0.92718385456678742</v>
-      </c>
-      <c r="S3" s="69">
-        <f t="shared" si="1"/>
-        <v>0.95105651629515353</v>
-      </c>
-      <c r="T3" s="69">
-        <f t="shared" si="1"/>
-        <v>0.97029572627599647</v>
-      </c>
-      <c r="U3" s="69">
-        <f t="shared" si="1"/>
-        <v>0.98480775301220802</v>
-      </c>
-      <c r="V3" s="69">
-        <f t="shared" si="1"/>
-        <v>0.99452189536827329</v>
-      </c>
-      <c r="W3" s="69">
-        <f t="shared" si="1"/>
-        <v>0.99939082701909576</v>
-      </c>
-      <c r="X3" s="69">
-        <f>X4/(2^14)</f>
-        <v>1.0006103515625</v>
-      </c>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" ref="A4:B4" si="2">INT(A3*(2^14))</f>
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="2"/>
-        <v>1142</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:W4" si="3">INT(C3*(2^14))</f>
-        <v>2280</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="3"/>
-        <v>3406</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="3"/>
-        <v>4516</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="3"/>
-        <v>5603</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="3"/>
-        <v>6663</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="3"/>
-        <v>7691</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="3"/>
-        <v>8682</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="3"/>
-        <v>9630</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="3"/>
-        <v>10531</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="3"/>
-        <v>11381</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="3"/>
-        <v>12175</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="3"/>
-        <v>12910</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="3"/>
-        <v>13582</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="3"/>
-        <v>14188</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="3"/>
-        <v>14725</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="3"/>
-        <v>15190</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="3"/>
-        <v>15582</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="3"/>
-        <v>15897</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="3"/>
-        <v>16135</v>
-      </c>
-      <c r="V4">
-        <f t="shared" si="3"/>
-        <v>16294</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="3"/>
-        <v>16374</v>
-      </c>
-      <c r="X4">
-        <f>2*(16384-16374)+16374</f>
-        <v>16394</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>30</v>
-      </c>
-      <c r="B7">
-        <f>INT(A7*(2^9))</f>
-        <v>15360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8">
-        <f>INT(B7/(2^11))</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="12">
-        <f>H4</f>
-        <v>7691</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="12">
-        <f>I4</f>
-        <v>8682</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11">
-        <f>(B7-B8*(2^11))</f>
-        <v>1024</v>
-      </c>
-      <c r="C11">
-        <f>B8*(2^10)</f>
-        <v>7168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="68">
-        <f>INT(B9+B11*((B10-B9))/(2^11))</f>
-        <v>8186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <f>INT(SIN(RADIANS(A7))*(2^14))</f>
-        <v>8192</v>
-      </c>
-      <c r="C13" s="67">
-        <f>(B12-B13)/B13</f>
-        <v>-7.32421875E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <f>SIN(RADIANS(A7))</f>
-        <v>0.49999999999999994</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18">
-        <f>INT(B17*(2^5))</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19">
-        <f>INT(B18/(2^2))*INT(B18/(2^2)/2)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <f>INT(B18*B18/(2^5))</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21">
-        <f>INT(B22*(2^5))</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22">
-        <f>B17*B17</f>
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26">
-        <v>0.8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26">
-        <f>INT(B26*(2^14))</f>
-        <v>13107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27">
-        <v>0.86</v>
-      </c>
-      <c r="C27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27">
-        <f>INT(B27*(2^14))</f>
-        <v>14090</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D28">
-        <f>INT((INT(D26/(2^7))*INT(D27/(2^7))) / (2^0))</f>
-        <v>11220</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29">
-        <f>B26*B27</f>
-        <v>0.68800000000000006</v>
-      </c>
-      <c r="C29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29">
-        <f>INT(B29*(2^14))</f>
-        <v>11272</v>
-      </c>
-      <c r="E29" s="66">
-        <f>(D28-D29)/D29</f>
-        <v>-4.6132008516678496E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31">
-        <v>18.23</v>
-      </c>
-      <c r="C31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31">
-        <f>INT(B31*(2^8))</f>
-        <v>4666</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32">
-        <v>8.2937999999999992</v>
-      </c>
-      <c r="C32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32">
-        <f>INT(B32*(2^2))</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D33">
-        <f>INT(D31*(2^4)/D32)</f>
-        <v>2262</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34">
-        <f>B31/B32</f>
-        <v>2.1980274421857295</v>
-      </c>
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34">
-        <f>INT(B34*(2^10))</f>
-        <v>2250</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L1">
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>255</v>
       </c>
@@ -21394,7 +19803,7 @@
         <f t="shared" ref="D2:D11" si="0">(B2-$H$6)*($G$7-$G$6)/($H$7-$H$6)+$G$6</f>
         <v>255</v>
       </c>
-      <c r="E2" s="78">
+      <c r="E2" s="74">
         <f t="shared" ref="E2:E26" si="1">(D2-A2)/A2</f>
         <v>0</v>
       </c>
@@ -21410,14 +19819,14 @@
         <v>17.091891891891891</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L2">
         <f>L1/B2*255</f>
         <v>137.83783783783784</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>245</v>
       </c>
@@ -21433,7 +19842,7 @@
         <f t="shared" si="0"/>
         <v>251.13259668508289</v>
       </c>
-      <c r="E3" s="78">
+      <c r="E3" s="74">
         <f t="shared" si="1"/>
         <v>2.5031006877889339E-2</v>
       </c>
@@ -21449,7 +19858,7 @@
         <v>94.281081081081084</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L3">
         <f>(L2-I2)*(G3-G2)/(I3-I2)+G2</f>
@@ -21466,7 +19875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>235</v>
       </c>
@@ -21481,7 +19890,7 @@
         <f t="shared" si="0"/>
         <v>247.26519337016575</v>
       </c>
-      <c r="E4" s="78">
+      <c r="E4" s="74">
         <f t="shared" si="1"/>
         <v>5.2192312213471266E-2</v>
       </c>
@@ -21508,7 +19917,7 @@
         <v>333.72549019607845</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>225</v>
       </c>
@@ -21524,7 +19933,7 @@
         <f t="shared" si="0"/>
         <v>243.12154696132598</v>
       </c>
-      <c r="E5" s="78">
+      <c r="E5" s="74">
         <f t="shared" si="1"/>
         <v>8.0540208717004333E-2</v>
       </c>
@@ -21551,7 +19960,7 @@
         <v>834.31372549019613</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>215</v>
       </c>
@@ -21566,7 +19975,7 @@
         <f t="shared" si="0"/>
         <v>238.97790055248618</v>
       </c>
-      <c r="E6" s="78">
+      <c r="E6" s="74">
         <f t="shared" si="1"/>
         <v>0.11152511884877291</v>
       </c>
@@ -21593,7 +20002,7 @@
         <v>1102.7450980392157</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>205</v>
       </c>
@@ -21609,7 +20018,7 @@
         <f t="shared" si="0"/>
         <v>215.49723756906076</v>
       </c>
-      <c r="E7" s="78">
+      <c r="E7" s="74">
         <f t="shared" si="1"/>
         <v>5.1206036922247601E-2</v>
       </c>
@@ -21636,7 +20045,7 @@
         <v>1284.1176470588234</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>195</v>
       </c>
@@ -21651,7 +20060,7 @@
         <f t="shared" si="0"/>
         <v>192.01657458563537</v>
       </c>
-      <c r="E8" s="78">
+      <c r="E8" s="74">
         <f t="shared" si="1"/>
         <v>-1.5299617509562215E-2</v>
       </c>
@@ -21667,7 +20076,7 @@
         <v>1385.686274509804</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>185</v>
       </c>
@@ -21683,7 +20092,7 @@
         <f t="shared" si="0"/>
         <v>184.00552486187846</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="74">
         <f t="shared" si="1"/>
         <v>-5.375541287143481E-3</v>
       </c>
@@ -21699,7 +20108,7 @@
         <v>1465.4901960784314</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>175</v>
       </c>
@@ -21714,7 +20123,7 @@
         <f t="shared" si="0"/>
         <v>175.99447513812154</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="74">
         <f t="shared" si="1"/>
         <v>5.6827150749802517E-3</v>
       </c>
@@ -21730,7 +20139,7 @@
         <v>1538.0392156862745</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>165</v>
       </c>
@@ -21746,7 +20155,7 @@
         <f t="shared" si="0"/>
         <v>165.49723756906079</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="74">
         <f t="shared" si="1"/>
         <v>3.0135610246108256E-3</v>
       </c>
@@ -21762,7 +20171,7 @@
         <v>1596.0784313725489</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>155</v>
       </c>
@@ -21777,7 +20186,7 @@
         <f t="shared" ref="D12:D17" si="6">(B12-$H$5)*($G$6-$G$5)/($H$6-$H$5)+$G$5</f>
         <v>155</v>
       </c>
-      <c r="E12" s="78">
+      <c r="E12" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -21793,7 +20202,7 @@
         <v>1632.3529411764705</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>A12-10</f>
         <v>145</v>
@@ -21810,7 +20219,7 @@
         <f t="shared" si="6"/>
         <v>147.57731958762886</v>
       </c>
-      <c r="E13" s="78">
+      <c r="E13" s="74">
         <f t="shared" si="1"/>
         <v>1.7774617845716302E-2</v>
       </c>
@@ -21826,7 +20235,7 @@
         <v>1675.8823529411766</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" ref="A14:A24" si="7">A13-10</f>
         <v>135</v>
@@ -21842,7 +20251,7 @@
         <f t="shared" si="6"/>
         <v>140.15463917525773</v>
       </c>
-      <c r="E14" s="78">
+      <c r="E14" s="74">
         <f t="shared" si="1"/>
         <v>3.8182512409316506E-2</v>
       </c>
@@ -21858,7 +20267,7 @@
         <v>1712.1568627450981</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="7"/>
         <v>125</v>
@@ -21875,7 +20284,7 @@
         <f t="shared" si="6"/>
         <v>130.25773195876289</v>
       </c>
-      <c r="E15" s="78">
+      <c r="E15" s="74">
         <f t="shared" si="1"/>
         <v>4.2061855670103114E-2</v>
       </c>
@@ -21891,7 +20300,7 @@
         <v>1733.9215686274511</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="7"/>
         <v>115</v>
@@ -21907,7 +20316,7 @@
         <f t="shared" si="6"/>
         <v>120.36082474226804</v>
       </c>
-      <c r="E16" s="78">
+      <c r="E16" s="74">
         <f t="shared" si="1"/>
         <v>4.661586732406988E-2</v>
       </c>
@@ -21923,7 +20332,7 @@
         <v>1777.4509803921569</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="7"/>
         <v>105</v>
@@ -21940,7 +20349,7 @@
         <f t="shared" si="6"/>
         <v>107.68041237113403</v>
       </c>
-      <c r="E17" s="78">
+      <c r="E17" s="74">
         <f t="shared" si="1"/>
         <v>2.5527736867943098E-2</v>
       </c>
@@ -21956,7 +20365,7 @@
         <v>1799.2156862745098</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="7"/>
         <v>95</v>
@@ -21972,7 +20381,7 @@
         <f>(B18-$H$4)*($G$5-$G$4)/($H$5-$H$4)+$G$4</f>
         <v>95</v>
       </c>
-      <c r="E18" s="78">
+      <c r="E18" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -21988,7 +20397,7 @@
         <v>1828.2352941176471</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="7"/>
         <v>85</v>
@@ -22004,7 +20413,7 @@
         <f>(B19-$H$4)*($G$5-$G$4)/($H$5-$H$4)+$G$4</f>
         <v>87.802768166089976</v>
       </c>
-      <c r="E19" s="78">
+      <c r="E19" s="74">
         <f t="shared" si="1"/>
         <v>3.2973743130470308E-2</v>
       </c>
@@ -22020,7 +20429,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="7"/>
         <v>75</v>
@@ -22036,12 +20445,12 @@
         <f>(B20-$H$4)*($G$5-$G$4)/($H$5-$H$4)+$G$4</f>
         <v>79.913494809688586</v>
       </c>
-      <c r="E20" s="78">
+      <c r="E20" s="74">
         <f t="shared" si="1"/>
         <v>6.5513264129181153E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="7"/>
         <v>65</v>
@@ -22057,12 +20466,12 @@
         <f>(B21-$H$4)*($G$5-$G$4)/($H$5-$H$4)+$G$4</f>
         <v>69.809688581314873</v>
       </c>
-      <c r="E21" s="78">
+      <c r="E21" s="74">
         <f t="shared" si="1"/>
         <v>7.3995208943305746E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="7"/>
         <v>55</v>
@@ -22078,12 +20487,12 @@
         <f>(B22-$H$4)*($G$5-$G$4)/($H$5-$H$4)+$G$4</f>
         <v>55</v>
       </c>
-      <c r="E22" s="78">
+      <c r="E22" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="7"/>
         <v>45</v>
@@ -22099,12 +20508,12 @@
         <f>(B23-$H$3)*($G$4-$G$3)/($H$4-$H$3)+$G$3</f>
         <v>48.127490039840637</v>
       </c>
-      <c r="E23" s="78">
+      <c r="E23" s="74">
         <f t="shared" si="1"/>
         <v>6.9499778663125275E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="7"/>
         <v>35</v>
@@ -22120,12 +20529,12 @@
         <f>(B24-$H$3)*($G$4-$G$3)/($H$4-$H$3)+$G$3</f>
         <v>38.625498007968126</v>
       </c>
-      <c r="E24" s="78">
+      <c r="E24" s="74">
         <f t="shared" si="1"/>
         <v>0.10358565737051789</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -22140,12 +20549,12 @@
         <f>(B25-$H$3)*($G$4-$G$3)/($H$4-$H$3)+$G$3</f>
         <v>25</v>
       </c>
-      <c r="E25" s="78">
+      <c r="E25" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>15</v>
       </c>
@@ -22160,12 +20569,12 @@
         <f t="shared" ref="D26" si="8">(B26-$H$2)*($G$3-$G$2)/($H$3-$H$2)+$G$2</f>
         <v>14.098214285714285</v>
       </c>
-      <c r="E26" s="78">
+      <c r="E26" s="74">
         <f t="shared" si="1"/>
         <v>-6.011904761904769E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>10</v>
       </c>
@@ -22180,7 +20589,7 @@
         <f t="shared" ref="D27" si="9">(B27-$H$2)*($G$3-$G$2)/($H$3-$H$2)+$G$2</f>
         <v>10</v>
       </c>
-      <c r="E27" s="78">
+      <c r="E27" s="74">
         <f>(D27-A27)/A27</f>
         <v>0</v>
       </c>
@@ -22189,339 +20598,4 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4">
-        <f>360/(2*PI())</f>
-        <v>57.295779513082323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5">
-        <f>1000/$B$4</f>
-        <v>17.453292519943297</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7">
-        <v>39.6</v>
-      </c>
-      <c r="E7">
-        <f>B7</f>
-        <v>39.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8">
-        <v>11.5</v>
-      </c>
-      <c r="E8">
-        <f>B8</f>
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <f>B9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="90">
-        <f>B10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="90">
-        <v>-180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="90"/>
-    </row>
-    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14">
-        <v>0.03</v>
-      </c>
-      <c r="D14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14">
-        <f>B14*1000</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15">
-        <v>0.12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15">
-        <f>B15*1000</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <f>1/100</f>
-        <v>0.01</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16">
-        <f>B16</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="89">
-        <v>0.01</v>
-      </c>
-      <c r="D18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="93">
-        <f>B18*1000</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="89"/>
-      <c r="E19" s="93"/>
-    </row>
-    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="91">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="79">
-        <f>B20*1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="91"/>
-      <c r="E21" s="79"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="84">
-        <v>0.05</v>
-      </c>
-      <c r="D22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="84">
-        <f>B22</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="83">
-        <f>B22*$B$4</f>
-        <v>2.8647889756541165</v>
-      </c>
-      <c r="D23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="83">
-        <f>B23</f>
-        <v>2.8647889756541165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="86">
-        <v>0</v>
-      </c>
-      <c r="D24" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="83">
-        <f>B24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="85" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" s="87">
-        <f>B24*B4</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="85" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="87">
-        <f>B25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="95">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="94">
-        <f>B26*1000</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="83"/>
-      <c r="E27" s="83"/>
-    </row>
-    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28">
-        <f>B22*$B$7+$B$8*B24 + B18*$B$9 + B20*$B$10</f>
-        <v>1.9800000000000002</v>
-      </c>
-      <c r="D28" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28">
-        <f>E23*$E$7*$B$5+E25*B5*$E$8+E18*$E$9+E20*$E$10+E26*E11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29">
-        <f>IF(B28&gt;B15,B28,IF(B28&lt;-B15,B28,IF(B28&gt;B14,B15,IF(B28&lt;-B14,-B15,0))))</f>
-        <v>1.9800000000000002</v>
-      </c>
-      <c r="D29" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29">
-        <f>IF(E28&gt;E15,E28,IF(E28&lt;-E15,E28,IF(E28&gt;E14,E15,IF(E28&lt;-E14,-E15,0))))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31">
-        <f>B20+B16*B29</f>
-        <v>1.9800000000000002E-2</v>
-      </c>
-      <c r="D31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31">
-        <f>E20+E16*E29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="88">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Mechanics/Ballbot Kinematics.xlsx
+++ b/Mechanics/Ballbot Kinematics.xlsx
@@ -20593,6 +20593,9 @@
         <f>(D27-A27)/A27</f>
         <v>0</v>
       </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
